--- a/docs/tcamp/2022教師營大專教職員_程式希求_R2.xlsx
+++ b/docs/tcamp/2022教師營大專教職員_程式希求_R2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coolk\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bwcamp\docs\tcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D0A8C8-230F-4453-A882-8A21D209E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1BCD1-A3C2-424A-B6ED-9DD7FCCB48EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表4" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1198">
   <si>
     <t>我同意主辦單位在營隊期間拍照、錄影之活動記錄，使用於營隊及主辦單位的非營利教育推廣使用，並以網路方式推播。</t>
   </si>
@@ -3711,12 +3711,16 @@
 研習費用：新台幣1,200元整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>教師？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3769,6 +3773,29 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -3969,7 +3996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4038,12 +4065,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4053,6 +4074,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4335,35 +4366,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4E7A1C-E571-4C58-BFC9-D0AEDE9B7BD0}">
   <dimension ref="B1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="45.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="45.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="57.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="25" t="s">
         <v>3</v>
@@ -4371,37 +4402,37 @@
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>1136</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>1139</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="17" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="18" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
-      <c r="C8" s="42"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="26" t="s">
         <v>1138</v>
       </c>
@@ -4409,7 +4440,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
         <v>1137</v>
@@ -4421,41 +4452,41 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="49" t="s">
         <v>1143</v>
       </c>
       <c r="C10" s="33"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="49" t="s">
         <v>1150</v>
       </c>
       <c r="C11" s="33"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
         <v>1144</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
         <v>1147</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -4465,7 +4496,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="29"/>
       <c r="C16" s="37" t="s">
         <v>1149</v>
@@ -4474,13 +4505,13 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="32" t="s">
+    <row r="17" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="50" t="s">
         <v>1162</v>
       </c>
       <c r="C17" s="33"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>1163</v>
       </c>
@@ -4488,113 +4519,116 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="27" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="27" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="C21" s="27" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="24"/>
       <c r="C22" s="27" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="24"/>
       <c r="C23" s="27" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="27" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="C25" s="35" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
         <v>1151</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="16" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="C27" s="27" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="39" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
         <v>1155</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" s="27" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="27" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="27" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
       <c r="C34" s="27" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
         <v>1170</v>
       </c>
@@ -4605,7 +4639,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
       <c r="C37" s="26" t="s">
         <v>1171</v>
@@ -4614,7 +4648,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="26" t="s">
         <v>1172</v>
@@ -4623,7 +4657,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
       <c r="C39" s="37" t="s">
         <v>1174</v>
@@ -4632,7 +4666,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>1175</v>
       </c>
@@ -4640,7 +4674,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
         <v>1176</v>
       </c>
@@ -4654,7 +4688,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
       <c r="C42" s="37" t="s">
         <v>1178</v>
@@ -4662,7 +4696,7 @@
       <c r="D42" s="37"/>
       <c r="E42" s="35"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>1180</v>
       </c>
@@ -4670,37 +4704,37 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="C45" s="27" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="C46" s="27" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="24"/>
       <c r="C47" s="27" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
       <c r="C48" s="35" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="32" t="s">
         <v>1186</v>
       </c>
@@ -4708,7 +4742,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
         <v>1187</v>
       </c>
@@ -4716,13 +4750,13 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="29"/>
       <c r="C51" s="35" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
         <v>1190</v>
       </c>
@@ -4730,7 +4764,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="41" t="s">
         <v>0</v>
       </c>
@@ -4738,8 +4772,8 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="45" t="s">
+    <row r="54" spans="2:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="35" t="s">
@@ -4765,22 +4799,22 @@
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="12"/>
-    <col min="7" max="8" width="8.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="17.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.625" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="12"/>
+    <col min="1" max="1" width="8.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="7" max="8" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="12" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4818,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4856,7 +4890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4894,7 +4928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4932,7 +4966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4970,7 +5004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5008,7 +5042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5046,7 +5080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5059,7 +5093,7 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>63</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -5084,7 +5118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5122,7 +5156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5160,7 +5194,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5198,7 +5232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5236,7 +5270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5274,7 +5308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5312,7 +5346,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5325,7 +5359,7 @@
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="42" t="s">
         <v>1194</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -5350,7 +5384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5388,7 +5422,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5426,7 +5460,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5464,7 +5498,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5502,7 +5536,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5540,7 +5574,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5578,7 +5612,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5616,7 +5650,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5654,7 +5688,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5692,7 +5726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5730,7 +5764,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5768,7 +5802,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5806,7 +5840,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5844,7 +5878,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5882,7 +5916,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5920,7 +5954,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5958,7 +5992,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5996,7 +6030,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6034,7 +6068,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6072,7 +6106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6110,7 +6144,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6148,7 +6182,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6186,7 +6220,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6224,7 +6258,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6262,7 +6296,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6300,7 +6334,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6338,7 +6372,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6376,7 +6410,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6414,7 +6448,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6452,7 +6486,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6490,7 +6524,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6528,7 +6562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6566,7 +6600,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6604,7 +6638,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6642,7 +6676,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6680,7 +6714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6718,7 +6752,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6756,7 +6790,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6794,7 +6828,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6832,7 +6866,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6870,7 +6904,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6908,7 +6942,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6946,7 +6980,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6984,7 +7018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7022,7 +7056,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7060,7 +7094,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7098,7 +7132,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7136,7 +7170,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7174,7 +7208,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7212,7 +7246,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7250,7 +7284,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7288,7 +7322,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7326,7 +7360,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7364,7 +7398,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7402,7 +7436,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7440,7 +7474,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7478,7 +7512,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7516,7 +7550,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7554,7 +7588,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -7592,7 +7626,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -7630,7 +7664,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -7668,7 +7702,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -7706,7 +7740,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -7744,7 +7778,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -7782,7 +7816,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7820,7 +7854,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7858,7 +7892,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7896,7 +7930,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -7934,7 +7968,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -7972,7 +8006,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8010,7 +8044,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -8048,7 +8082,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -8086,7 +8120,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -8124,7 +8158,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -8162,7 +8196,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -8200,7 +8234,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -8238,7 +8272,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -8276,7 +8310,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -8314,7 +8348,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -8352,7 +8386,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -8390,7 +8424,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -8428,7 +8462,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -8466,7 +8500,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -8504,7 +8538,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -8542,7 +8576,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -8580,7 +8614,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -8618,7 +8652,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -8656,7 +8690,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -8694,7 +8728,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -8732,7 +8766,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -8770,7 +8804,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -8808,7 +8842,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -8846,7 +8880,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -8884,7 +8918,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -8922,7 +8956,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -8960,7 +8994,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -8998,7 +9032,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -9036,7 +9070,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -9074,7 +9108,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -9112,7 +9146,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -9150,7 +9184,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -9188,7 +9222,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -9226,7 +9260,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -9264,7 +9298,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -9302,7 +9336,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -9340,7 +9374,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -9378,7 +9412,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -9416,7 +9450,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -9454,7 +9488,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -9492,7 +9526,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -9530,7 +9564,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -9568,7 +9602,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -9606,7 +9640,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -9644,7 +9678,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -9682,7 +9716,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -9720,7 +9754,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -9758,7 +9792,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -9796,7 +9830,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -9834,7 +9868,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -9872,7 +9906,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -9910,7 +9944,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -9948,7 +9982,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -9986,7 +10020,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -10024,7 +10058,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -10062,7 +10096,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -10100,7 +10134,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -10138,7 +10172,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -10176,7 +10210,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -10214,7 +10248,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -10252,7 +10286,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -10290,7 +10324,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -10328,7 +10362,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -10366,7 +10400,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -10404,7 +10438,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -10442,7 +10476,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -10480,7 +10514,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -10518,7 +10552,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -10556,7 +10590,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -10594,7 +10628,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -10632,7 +10666,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -10670,7 +10704,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -10708,7 +10742,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -10746,7 +10780,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -10784,7 +10818,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -10822,7 +10856,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -10860,7 +10894,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -10898,7 +10932,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -10923,7 +10957,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -10946,7 +10980,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -10969,7 +11003,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -10992,7 +11026,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -11015,7 +11049,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -11038,7 +11072,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -11061,7 +11095,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -11086,7 +11120,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -11109,7 +11143,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E172" s="12" t="s">
         <v>1130</v>
       </c>
@@ -11117,7 +11151,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E173" s="12" t="s">
         <v>1132</v>
       </c>
@@ -11125,12 +11159,12 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="12" t="s">
         <v>1135</v>
       </c>

--- a/docs/tcamp/2022教師營大專教職員_程式希求_R2.xlsx
+++ b/docs/tcamp/2022教師營大專教職員_程式希求_R2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bwcamp\docs\tcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzong/wwwroot/bwcamp/docs/tcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1BCD1-A3C2-424A-B6ED-9DD7FCCB48EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143AEE9-C4F5-E24C-BDFE-30120C785EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="500" windowWidth="14900" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表4" sheetId="4" r:id="rId1"/>
@@ -3720,7 +3720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3795,6 +3795,21 @@
       <b/>
       <sz val="12"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
@@ -3996,7 +4011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4051,7 +4066,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4075,15 +4089,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4366,35 +4383,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4E7A1C-E571-4C58-BFC9-D0AEDE9B7BD0}">
   <dimension ref="B1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="45.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.59765625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="45.19921875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="57.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:5" ht="95">
+      <c r="B1" s="43" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+    <row r="2" spans="2:5" ht="19" thickBot="1"/>
+    <row r="3" spans="2:5">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B4" s="24"/>
       <c r="C4" s="25" t="s">
         <v>3</v>
@@ -4402,37 +4419,37 @@
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1">
       <c r="B5" s="24"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="48" t="s">
         <v>1136</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="49" t="s">
         <v>1139</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1">
       <c r="B6" s="24"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="17" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="19" thickBot="1">
       <c r="B7" s="24"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="18" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="24"/>
-      <c r="C8" s="46"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="26" t="s">
         <v>1138</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="19" thickBot="1">
       <c r="B9" s="29"/>
       <c r="C9" s="30" t="s">
         <v>1137</v>
@@ -4452,184 +4469,184 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="2:5" ht="19" thickBot="1">
+      <c r="B10" s="46" t="s">
         <v>1143</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="32"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:5" ht="19" thickBot="1">
+      <c r="B11" s="46" t="s">
         <v>1150</v>
       </c>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="45" t="s">
         <v>1144</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="19" thickBot="1">
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="2:5">
+      <c r="B15" s="45" t="s">
         <v>1147</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>1148</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="19" thickBot="1">
       <c r="B16" s="29"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>1149</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
+    <row r="17" spans="2:4" ht="19" thickBot="1">
+      <c r="B17" s="47" t="s">
         <v>1162</v>
       </c>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="21" t="s">
         <v>1163</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="24"/>
       <c r="C19" s="27" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="24"/>
       <c r="C20" s="27" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="24"/>
       <c r="C21" s="27" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="24"/>
       <c r="C22" s="27" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="24"/>
       <c r="C23" s="27" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="24"/>
       <c r="C24" s="27" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="19" thickBot="1">
       <c r="B25" s="29"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="44" t="s">
         <v>1151</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>1152</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="24"/>
       <c r="C27" s="27" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="19" thickBot="1">
       <c r="B28" s="29"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="44" t="s">
         <v>1155</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="24"/>
       <c r="C30" s="27" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="24"/>
       <c r="C31" s="27" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="24"/>
       <c r="C32" s="27" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="24"/>
       <c r="C33" s="27" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="24"/>
       <c r="C34" s="27" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="19" thickBot="1">
       <c r="B35" s="24"/>
       <c r="C35" s="27" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
+    <row r="36" spans="2:5" ht="38">
+      <c r="B36" s="39" t="s">
         <v>1170</v>
       </c>
       <c r="C36" s="22" t="s">
@@ -4639,7 +4656,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="24"/>
       <c r="C37" s="26" t="s">
         <v>1171</v>
@@ -4648,7 +4665,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="24"/>
       <c r="C38" s="26" t="s">
         <v>1172</v>
@@ -4657,25 +4674,25 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="19" thickBot="1">
       <c r="B39" s="29"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>1174</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40" t="s">
+    <row r="40" spans="2:5" ht="39" thickBot="1">
+      <c r="B40" s="39" t="s">
         <v>1175</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="21" t="s">
+    <row r="41" spans="2:5">
+      <c r="B41" s="51" t="s">
         <v>1176</v>
       </c>
       <c r="C41" s="22" t="s">
@@ -4688,61 +4705,61 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="19" thickBot="1">
       <c r="B42" s="29"/>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="35"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+      <c r="D42" s="36"/>
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="51" t="s">
         <v>1180</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="24"/>
       <c r="C44" s="27" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="24"/>
       <c r="C45" s="27" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" s="24"/>
       <c r="C46" s="27" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" s="24"/>
       <c r="C47" s="27" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="19" thickBot="1">
       <c r="B48" s="29"/>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="32" t="s">
+    <row r="49" spans="2:3" ht="19" thickBot="1">
+      <c r="B49" s="52" t="s">
         <v>1186</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="32" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="21" t="s">
         <v>1187</v>
       </c>
@@ -4750,33 +4767,33 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" ht="19" thickBot="1">
       <c r="B51" s="29"/>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
+    <row r="52" spans="2:3" ht="19" thickBot="1">
+      <c r="B52" s="50" t="s">
         <v>1190</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="41" t="s">
+    <row r="53" spans="2:3" ht="58" thickBot="1">
+      <c r="B53" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="32" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="43" t="s">
+    <row r="54" spans="2:3" ht="96" thickBot="1">
+      <c r="B54" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -4799,22 +4816,22 @@
       <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12"/>
-    <col min="7" max="8" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="12" customWidth="1"/>
-    <col min="10" max="11" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="8.19921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="30.19921875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="12"/>
+    <col min="7" max="8" width="8.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.19921875" style="12" customWidth="1"/>
+    <col min="10" max="11" width="17.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.59765625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4852,7 +4869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4890,7 +4907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4928,7 +4945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4966,7 +4983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5004,7 +5021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5042,7 +5059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5080,7 +5097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5093,7 +5110,7 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>63</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -5118,7 +5135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5156,7 +5173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5194,7 +5211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5232,7 +5249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5270,7 +5287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5308,7 +5325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5346,7 +5363,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5359,7 +5376,7 @@
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>1194</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -5384,7 +5401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5422,7 +5439,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5460,7 +5477,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5498,7 +5515,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5536,7 +5553,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5612,7 +5629,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5650,7 +5667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5688,7 +5705,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5726,7 +5743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5764,7 +5781,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5802,7 +5819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5840,7 +5857,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5878,7 +5895,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5916,7 +5933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5954,7 +5971,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5992,7 +6009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -6030,7 +6047,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6106,7 +6123,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6144,7 +6161,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6182,7 +6199,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -6220,7 +6237,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6258,7 +6275,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6296,7 +6313,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6334,7 +6351,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6372,7 +6389,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6410,7 +6427,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6448,7 +6465,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6486,7 +6503,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6524,7 +6541,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6562,7 +6579,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6600,7 +6617,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6638,7 +6655,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6676,7 +6693,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6714,7 +6731,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6752,7 +6769,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6790,7 +6807,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6828,7 +6845,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6866,7 +6883,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6904,7 +6921,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6942,7 +6959,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6980,7 +6997,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -7018,7 +7035,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7056,7 +7073,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7094,7 +7111,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7132,7 +7149,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7170,7 +7187,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7208,7 +7225,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7246,7 +7263,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7284,7 +7301,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7322,7 +7339,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7360,7 +7377,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7398,7 +7415,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7436,7 +7453,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7474,7 +7491,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7512,7 +7529,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7550,7 +7567,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7588,7 +7605,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -7626,7 +7643,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -7664,7 +7681,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -7702,7 +7719,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -7740,7 +7757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -7778,7 +7795,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -7816,7 +7833,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7854,7 +7871,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7892,7 +7909,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -7930,7 +7947,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -7968,7 +7985,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -8006,7 +8023,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8044,7 +8061,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -8082,7 +8099,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -8120,7 +8137,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -8158,7 +8175,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -8196,7 +8213,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -8234,7 +8251,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -8272,7 +8289,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -8310,7 +8327,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -8348,7 +8365,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -8386,7 +8403,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -8424,7 +8441,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -8462,7 +8479,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -8500,7 +8517,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -8538,7 +8555,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -8576,7 +8593,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -8614,7 +8631,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -8652,7 +8669,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -8690,7 +8707,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -8728,7 +8745,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -8766,7 +8783,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -8804,7 +8821,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -8842,7 +8859,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -8880,7 +8897,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -8918,7 +8935,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -8956,7 +8973,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -8994,7 +9011,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -9032,7 +9049,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -9070,7 +9087,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -9108,7 +9125,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -9146,7 +9163,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -9184,7 +9201,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -9222,7 +9239,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -9260,7 +9277,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -9298,7 +9315,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -9336,7 +9353,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -9374,7 +9391,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -9412,7 +9429,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -9450,7 +9467,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -9488,7 +9505,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -9526,7 +9543,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -9564,7 +9581,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -9602,7 +9619,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -9640,7 +9657,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -9678,7 +9695,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -9716,7 +9733,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -9754,7 +9771,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -9792,7 +9809,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -9830,7 +9847,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -9868,7 +9885,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -9906,7 +9923,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -9944,7 +9961,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -9982,7 +9999,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -10020,7 +10037,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -10058,7 +10075,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -10096,7 +10113,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -10134,7 +10151,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -10172,7 +10189,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -10210,7 +10227,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -10248,7 +10265,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -10286,7 +10303,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -10324,7 +10341,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -10362,7 +10379,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -10400,7 +10417,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -10438,7 +10455,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -10476,7 +10493,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -10514,7 +10531,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -10552,7 +10569,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -10590,7 +10607,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -10628,7 +10645,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -10666,7 +10683,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -10704,7 +10721,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -10742,7 +10759,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -10780,7 +10797,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -10818,7 +10835,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" s="7" customFormat="1" ht="36">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -10856,7 +10873,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -10894,7 +10911,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" s="7" customFormat="1" ht="18">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -10932,7 +10949,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="9">
         <v>161</v>
       </c>
@@ -10957,7 +10974,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="9">
         <v>162</v>
       </c>
@@ -10980,7 +10997,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="9">
         <v>163</v>
       </c>
@@ -11003,7 +11020,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="9">
         <v>164</v>
       </c>
@@ -11026,7 +11043,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="9">
         <v>165</v>
       </c>
@@ -11049,7 +11066,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="9">
         <v>166</v>
       </c>
@@ -11072,7 +11089,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="9">
         <v>167</v>
       </c>
@@ -11095,7 +11112,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="9">
         <v>168</v>
       </c>
@@ -11120,7 +11137,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="9">
         <v>169</v>
       </c>
@@ -11143,7 +11160,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="E172" s="12" t="s">
         <v>1130</v>
       </c>
@@ -11151,7 +11168,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="E173" s="12" t="s">
         <v>1132</v>
       </c>
@@ -11159,12 +11176,12 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="15" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5">
       <c r="E179" s="12" t="s">
         <v>1135</v>
       </c>
